--- a/US/data/CBS/NFIB/Borrowing Needs Not Satisfied.xlsx
+++ b/US/data/CBS/NFIB/Borrowing Needs Not Satisfied.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE292C89-4439-4E29-93FB-283826068D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6508A7E6-023F-4EE2-8F5F-93A5CEF5C131}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="361">
   <si>
     <t>Month/Year</t>
   </si>
@@ -1081,10 +1081,28 @@
     <t>2021/8/1</t>
   </si>
   <si>
+    <t>2021/9/1</t>
+  </si>
+  <si>
     <t>2021/10/1</t>
   </si>
   <si>
+    <t>2021/11/1</t>
+  </si>
+  <si>
     <t>2021/12/1</t>
+  </si>
+  <si>
+    <t>2022/1/1</t>
+  </si>
+  <si>
+    <t>2022/2/1</t>
+  </si>
+  <si>
+    <t>2022/3/1</t>
+  </si>
+  <si>
+    <t>2022/4/1</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B344"/>
+  <dimension ref="A1:B350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4248,10 +4266,57 @@
         <v>86</v>
       </c>
     </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>355</v>
+      </c>
+      <c r="B345" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>356</v>
+      </c>
+      <c r="B346" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>357</v>
+      </c>
+      <c r="B347" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>358</v>
+      </c>
+      <c r="B348" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>359</v>
+      </c>
+      <c r="B349" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>360</v>
+      </c>
+      <c r="B350" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/US/data/CBS/NFIB/Borrowing Needs Not Satisfied.xlsx
+++ b/US/data/CBS/NFIB/Borrowing Needs Not Satisfied.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6508A7E6-023F-4EE2-8F5F-93A5CEF5C131}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EC573A9-29D1-491C-AD20-201DDBE59119}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="362">
   <si>
     <t>Month/Year</t>
   </si>
@@ -1103,6 +1103,9 @@
   </si>
   <si>
     <t>2022/4/1</t>
+  </si>
+  <si>
+    <t>2022/5/1</t>
   </si>
 </sst>
 </file>
@@ -1502,7 +1505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B350"/>
+  <dimension ref="A1:B351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4314,9 +4317,18 @@
         <v>86</v>
       </c>
     </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>361</v>
+      </c>
+      <c r="B351" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>